--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem4/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem4/99/word_level_predictions_99.xlsx
@@ -1438,624 +1438,624 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="D21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>returning</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="G22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="G23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="G24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="G25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="G26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" t="n">
         <v>2</v>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" t="n">
         <v>7</v>
       </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" t="n">
         <v>2</v>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" t="n">
         <v>8</v>
       </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" t="n">
         <v>2</v>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" t="n">
         <v>9</v>
       </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" t="n">
         <v>2</v>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" t="n">
         <v>10</v>
       </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" t="n">
         <v>2</v>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>30m</t>
         </is>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" t="n">
         <v>11</v>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -3669,111 +3669,111 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>4</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Restart</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>4</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Aircraft</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>3</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
           <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C63" s="2" t="inlineStr">
-        <is>
-          <t>Restart</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E63" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L63" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C64" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft</t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E64" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -5286,156 +5286,156 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C94" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D94" t="n">
+      <c r="D94" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E94" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K94" t="b">
-        <v>1</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C96" s="2" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D96" t="n">
+      <c r="D96" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E96" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F96" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" t="b">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K96" t="b">
-        <v>1</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="G96" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -5806,468 +5806,468 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
+      <c r="A104" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C104" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D104" t="n">
+      <c r="D104" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="E104" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G104" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I104" t="b">
-        <v>1</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K104" t="b">
-        <v>1</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L104" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
+      <c r="A105" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C105" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D105" t="n">
+      <c r="D105" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E105" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F105" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G105" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I105" t="b">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K105" t="b">
-        <v>1</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="G105" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
+      <c r="A106" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C106" s="2" t="inlineStr">
         <is>
           <t>display</t>
         </is>
       </c>
-      <c r="D106" t="n">
+      <c r="D106" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="E106" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="F106" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G106" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I106" t="b">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K106" t="b">
-        <v>1</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="G106" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L106" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
+      <c r="A107" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C107" s="2" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D107" t="n">
+      <c r="D107" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="E107" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="F107" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G107" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I107" t="b">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K107" t="b">
-        <v>1</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="G107" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
+      <c r="A108" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C108" s="2" t="inlineStr">
         <is>
           <t>manned</t>
         </is>
       </c>
-      <c r="D108" t="n">
+      <c r="D108" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="E108" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="F108" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G108" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I108" t="b">
-        <v>1</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K108" t="b">
-        <v>1</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="G108" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L108" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
+      <c r="A109" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C109" s="2" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D109" t="n">
+      <c r="D109" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="E109" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="F109" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G109" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I109" t="b">
-        <v>1</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K109" t="b">
-        <v>1</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="G109" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L109" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
+      <c r="A110" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C110" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D110" t="n">
+      <c r="D110" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="E110" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="F110" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G110" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I110" t="b">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K110" t="b">
-        <v>1</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="G110" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L110" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
+      <c r="A111" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C111" s="2" t="inlineStr">
         <is>
           <t>anti-collision</t>
         </is>
       </c>
-      <c r="D111" t="n">
+      <c r="D111" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="E111" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="F111" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G111" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K111" t="b">
-        <v>1</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="G111" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
+      <c r="A112" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C112" s="2" t="inlineStr">
         <is>
           <t>warnings</t>
         </is>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="E112" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="F112" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G112" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K112" t="b">
-        <v>1</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="G112" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -8533,7 +8533,7 @@
       </c>
       <c r="F156" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G156" s="2" t="b">
@@ -8557,7 +8557,7 @@
       </c>
       <c r="L156" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="F159" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G159" s="2" t="b">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11422,364 +11422,364 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E212" t="inlineStr">
+      <c r="E212" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
+      <c r="F212" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" s="2" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C215" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C216" s="2" t="inlineStr">
         <is>
           <t>installation</t>
         </is>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C217" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C218" s="2" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E218" t="inlineStr">
+      <c r="E218" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="F218" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11838,104 +11838,104 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
+      <c r="A220" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B220" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="C220" s="2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D220" t="n">
+      <c r="D220" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E220" t="inlineStr">
+      <c r="E220" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
+      <c r="F220" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K220" t="b">
-        <v>1</v>
-      </c>
-      <c r="L220" t="inlineStr">
+      <c r="G220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J220" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C221" s="2" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D221" t="n">
-        <v>1</v>
-      </c>
-      <c r="E221" t="inlineStr">
+      <c r="D221" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E221" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
+      <c r="F221" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
+      <c r="G221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J221" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G222" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13814,730 +13814,730 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="2" t="n">
+      <c r="A258" t="n">
         <v>16</v>
       </c>
-      <c r="B258" s="2" t="inlineStr">
+      <c r="B258" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C258" s="2" t="inlineStr">
+      <c r="C258" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D258" s="2" t="n">
+      <c r="D258" t="n">
         <v>14</v>
       </c>
-      <c r="E258" s="2" t="inlineStr">
+      <c r="E258" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F258" s="2" t="inlineStr">
+      <c r="F258" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G258" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I258" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J258" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K258" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L258" s="2" t="inlineStr">
+      <c r="G258" t="b">
+        <v>1</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I258" t="b">
+        <v>1</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K258" t="b">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="2" t="n">
+      <c r="A259" t="n">
         <v>16</v>
       </c>
-      <c r="B259" s="2" t="inlineStr">
+      <c r="B259" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C259" s="2" t="inlineStr">
+      <c r="C259" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D259" s="2" t="n">
+      <c r="D259" t="n">
         <v>15</v>
       </c>
-      <c r="E259" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F259" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G259" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H259" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I259" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J259" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K259" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L259" s="2" t="inlineStr">
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G259" t="b">
+        <v>1</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I259" t="b">
+        <v>1</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K259" t="b">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="2" t="n">
+      <c r="A260" t="n">
         <v>16</v>
       </c>
-      <c r="B260" s="2" t="inlineStr">
+      <c r="B260" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C260" s="2" t="inlineStr">
+      <c r="C260" t="inlineStr">
         <is>
           <t>make</t>
         </is>
       </c>
-      <c r="D260" s="2" t="n">
+      <c r="D260" t="n">
         <v>16</v>
       </c>
-      <c r="E260" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F260" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G260" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L260" s="2" t="inlineStr">
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G260" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I260" t="b">
+        <v>1</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K260" t="b">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="2" t="n">
+      <c r="A261" t="n">
         <v>16</v>
       </c>
-      <c r="B261" s="2" t="inlineStr">
+      <c r="B261" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C261" s="2" t="inlineStr">
+      <c r="C261" t="inlineStr">
         <is>
           <t>sure</t>
         </is>
       </c>
-      <c r="D261" s="2" t="n">
+      <c r="D261" t="n">
         <v>17</v>
       </c>
-      <c r="E261" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F261" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G261" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L261" s="2" t="inlineStr">
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G261" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I261" t="b">
+        <v>1</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K261" t="b">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="2" t="n">
+      <c r="A262" t="n">
         <v>16</v>
       </c>
-      <c r="B262" s="2" t="inlineStr">
+      <c r="B262" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C262" s="2" t="inlineStr">
+      <c r="C262" t="inlineStr">
         <is>
           <t>you</t>
         </is>
       </c>
-      <c r="D262" s="2" t="n">
+      <c r="D262" t="n">
         <v>18</v>
       </c>
-      <c r="E262" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F262" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G262" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L262" s="2" t="inlineStr">
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G262" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I262" t="b">
+        <v>1</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K262" t="b">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="2" t="n">
+      <c r="A263" t="n">
         <v>16</v>
       </c>
-      <c r="B263" s="2" t="inlineStr">
+      <c r="B263" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C263" s="2" t="inlineStr">
+      <c r="C263" t="inlineStr">
         <is>
           <t>have</t>
         </is>
       </c>
-      <c r="D263" s="2" t="n">
+      <c r="D263" t="n">
         <v>19</v>
       </c>
-      <c r="E263" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F263" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G263" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L263" s="2" t="inlineStr">
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G263" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I263" t="b">
+        <v>1</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K263" t="b">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="2" t="n">
+      <c r="A264" t="n">
         <v>16</v>
       </c>
-      <c r="B264" s="2" t="inlineStr">
+      <c r="B264" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C264" s="2" t="inlineStr">
+      <c r="C264" t="inlineStr">
         <is>
           <t>obtained</t>
         </is>
       </c>
-      <c r="D264" s="2" t="n">
+      <c r="D264" t="n">
         <v>20</v>
       </c>
-      <c r="E264" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F264" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G264" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L264" s="2" t="inlineStr">
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G264" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I264" t="b">
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K264" t="b">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="2" t="n">
+      <c r="A265" t="n">
         <v>16</v>
       </c>
-      <c r="B265" s="2" t="inlineStr">
+      <c r="B265" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C265" s="2" t="inlineStr">
+      <c r="C265" t="inlineStr">
         <is>
           <t>proper</t>
         </is>
       </c>
-      <c r="D265" s="2" t="n">
+      <c r="D265" t="n">
         <v>21</v>
       </c>
-      <c r="E265" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F265" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G265" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L265" s="2" t="inlineStr">
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G265" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I265" t="b">
+        <v>1</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K265" t="b">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="2" t="n">
+      <c r="A266" t="n">
         <v>16</v>
       </c>
-      <c r="B266" s="2" t="inlineStr">
+      <c r="B266" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C266" s="2" t="inlineStr">
+      <c r="C266" t="inlineStr">
         <is>
           <t>authorization</t>
         </is>
       </c>
-      <c r="D266" s="2" t="n">
+      <c r="D266" t="n">
         <v>22</v>
       </c>
-      <c r="E266" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F266" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G266" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L266" s="2" t="inlineStr">
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G266" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I266" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K266" t="b">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="2" t="n">
+      <c r="A267" t="n">
         <v>16</v>
       </c>
-      <c r="B267" s="2" t="inlineStr">
+      <c r="B267" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C267" s="2" t="inlineStr">
+      <c r="C267" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D267" s="2" t="n">
+      <c r="D267" t="n">
         <v>23</v>
       </c>
-      <c r="E267" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F267" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G267" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L267" s="2" t="inlineStr">
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G267" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I267" t="b">
+        <v>1</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K267" t="b">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="2" t="n">
+      <c r="A268" t="n">
         <v>16</v>
       </c>
-      <c r="B268" s="2" t="inlineStr">
+      <c r="B268" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C268" s="2" t="inlineStr">
+      <c r="C268" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D268" s="2" t="n">
+      <c r="D268" t="n">
         <v>24</v>
       </c>
-      <c r="E268" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F268" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G268" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L268" s="2" t="inlineStr">
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G268" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I268" t="b">
+        <v>1</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K268" t="b">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="2" t="n">
+      <c r="A269" t="n">
         <v>16</v>
       </c>
-      <c r="B269" s="2" t="inlineStr">
+      <c r="B269" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C269" s="2" t="inlineStr">
+      <c r="C269" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D269" s="2" t="n">
+      <c r="D269" t="n">
         <v>25</v>
       </c>
-      <c r="E269" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F269" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G269" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J269" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L269" s="2" t="inlineStr">
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G269" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I269" t="b">
+        <v>1</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K269" t="b">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="2" t="n">
+      <c r="A270" t="n">
         <v>16</v>
       </c>
-      <c r="B270" s="2" t="inlineStr">
+      <c r="B270" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C270" s="2" t="inlineStr">
+      <c r="C270" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D270" s="2" t="n">
+      <c r="D270" t="n">
         <v>26</v>
       </c>
-      <c r="E270" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F270" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G270" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L270" s="2" t="inlineStr">
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G270" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I270" t="b">
+        <v>1</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K270" t="b">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="2" t="n">
+      <c r="A271" t="n">
         <v>16</v>
       </c>
-      <c r="B271" s="2" t="inlineStr">
+      <c r="B271" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C271" s="2" t="inlineStr">
+      <c r="C271" t="inlineStr">
         <is>
           <t>airspace</t>
         </is>
       </c>
-      <c r="D271" s="2" t="n">
+      <c r="D271" t="n">
         <v>27</v>
       </c>
-      <c r="E271" s="2" t="inlineStr">
+      <c r="E271" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F271" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G271" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J271" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L271" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G271" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I271" t="b">
+        <v>1</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K271" t="b">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem4/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem4/99/word_level_predictions_99.xlsx
@@ -1438,624 +1438,624 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" t="n">
         <v>2</v>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>returning</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Point</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>6</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J20" s="2" t="inlineStr">
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>RTH</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K20" s="2" t="b">
+      <c r="K28" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>Altitude</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
+      <c r="D30" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J21" s="2" t="inlineStr">
+      <c r="J30" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K21" s="2" t="b">
+      <c r="K30" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>returning</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="b">
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>30m</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J22" s="2" t="inlineStr">
+      <c r="J31" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K22" s="2" t="b">
+      <c r="K31" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>Point</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>2</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>7</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>2</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>RTH</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>8</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>2</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Altitude</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>9</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>2</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>10</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K30" t="b">
-        <v>1</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>2</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>30m</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>11</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K31" t="b">
-        <v>1</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3645,135 +3645,135 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>Restart</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K62" t="b">
-        <v>1</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
+      <c r="G63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Restart</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>2</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K63" t="b">
-        <v>1</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>4</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5286,156 +5286,156 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" t="n">
         <v>6</v>
       </c>
-      <c r="B94" s="2" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D94" s="2" t="n">
+      <c r="D94" t="n">
         <v>3</v>
       </c>
-      <c r="E94" s="2" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" t="n">
         <v>6</v>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D95" s="2" t="n">
+      <c r="D95" t="n">
         <v>4</v>
       </c>
-      <c r="E95" s="2" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F95" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" t="n">
         <v>6</v>
       </c>
-      <c r="B96" s="2" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C96" s="2" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D96" s="2" t="n">
+      <c r="D96" t="n">
         <v>5</v>
       </c>
-      <c r="E96" s="2" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F96" s="2" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G96" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L96" s="2" t="inlineStr">
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -5806,468 +5806,468 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" t="n">
         <v>7</v>
       </c>
-      <c r="B104" s="2" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C104" s="2" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D104" s="2" t="n">
+      <c r="D104" t="n">
         <v>3</v>
       </c>
-      <c r="E104" s="2" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F104" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G104" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L104" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I104" t="b">
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K104" t="b">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" t="n">
         <v>7</v>
       </c>
-      <c r="B105" s="2" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C105" s="2" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D105" s="2" t="n">
+      <c r="D105" t="n">
         <v>4</v>
       </c>
-      <c r="E105" s="2" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F105" s="2" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G105" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L105" s="2" t="inlineStr">
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" t="n">
         <v>7</v>
       </c>
-      <c r="B106" s="2" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C106" s="2" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>display</t>
         </is>
       </c>
-      <c r="D106" s="2" t="n">
+      <c r="D106" t="n">
         <v>5</v>
       </c>
-      <c r="E106" s="2" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F106" s="2" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G106" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L106" s="2" t="inlineStr">
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I106" t="b">
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" t="n">
         <v>7</v>
       </c>
-      <c r="B107" s="2" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C107" s="2" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D107" s="2" t="n">
+      <c r="D107" t="n">
         <v>6</v>
       </c>
-      <c r="E107" s="2" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F107" s="2" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G107" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L107" s="2" t="inlineStr">
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I107" t="b">
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K107" t="b">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" t="n">
         <v>7</v>
       </c>
-      <c r="B108" s="2" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C108" s="2" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>manned</t>
         </is>
       </c>
-      <c r="D108" s="2" t="n">
+      <c r="D108" t="n">
         <v>7</v>
       </c>
-      <c r="E108" s="2" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F108" s="2" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G108" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L108" s="2" t="inlineStr">
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I108" t="b">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K108" t="b">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" t="n">
         <v>7</v>
       </c>
-      <c r="B109" s="2" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C109" s="2" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D109" s="2" t="n">
+      <c r="D109" t="n">
         <v>8</v>
       </c>
-      <c r="E109" s="2" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F109" s="2" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G109" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L109" s="2" t="inlineStr">
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K109" t="b">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" t="n">
         <v>7</v>
       </c>
-      <c r="B110" s="2" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C110" s="2" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D110" s="2" t="n">
+      <c r="D110" t="n">
         <v>9</v>
       </c>
-      <c r="E110" s="2" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F110" s="2" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G110" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L110" s="2" t="inlineStr">
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I110" t="b">
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K110" t="b">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" t="n">
         <v>7</v>
       </c>
-      <c r="B111" s="2" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C111" s="2" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>anti-collision</t>
         </is>
       </c>
-      <c r="D111" s="2" t="n">
+      <c r="D111" t="n">
         <v>10</v>
       </c>
-      <c r="E111" s="2" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F111" s="2" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G111" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L111" s="2" t="inlineStr">
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" t="n">
         <v>7</v>
       </c>
-      <c r="B112" s="2" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C112" s="2" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>warnings</t>
         </is>
       </c>
-      <c r="D112" s="2" t="n">
+      <c r="D112" t="n">
         <v>11</v>
       </c>
-      <c r="E112" s="2" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" s="2" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G112" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L112" s="2" t="inlineStr">
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -8533,7 +8533,7 @@
       </c>
       <c r="F156" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G156" s="2" t="b">
@@ -8557,7 +8557,7 @@
       </c>
       <c r="L156" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="F159" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G159" s="2" t="b">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11422,364 +11422,364 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>13</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>5</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F212" s="2" t="inlineStr">
+      <c r="F212" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>13</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>6</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>13</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>7</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" t="n">
         <v>13</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C215" s="2" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" t="n">
         <v>8</v>
       </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" t="n">
         <v>13</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>installation</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" t="n">
         <v>9</v>
       </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" t="n">
         <v>13</v>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" t="n">
         <v>10</v>
       </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" t="n">
         <v>13</v>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" t="n">
         <v>11</v>
       </c>
-      <c r="E218" s="2" t="inlineStr">
+      <c r="E218" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F218" s="2" t="inlineStr">
+      <c r="F218" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11838,104 +11838,104 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" t="n">
         <v>14</v>
       </c>
-      <c r="B220" s="2" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C220" s="2" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D220" s="2" t="n">
+      <c r="D220" t="n">
         <v>0</v>
       </c>
-      <c r="E220" s="2" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F220" s="2" t="inlineStr">
+      <c r="F220" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="2" t="inlineStr">
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K220" t="b">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" t="n">
         <v>14</v>
       </c>
-      <c r="B221" s="2" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C221" s="2" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E221" s="2" t="inlineStr">
+      <c r="D221" t="n">
+        <v>1</v>
+      </c>
+      <c r="E221" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F221" s="2" t="inlineStr">
+      <c r="F221" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G222" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -13814,730 +13814,730 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="n">
+      <c r="A258" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B258" t="inlineStr">
+      <c r="B258" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr">
+      <c r="C258" s="2" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D258" t="n">
+      <c r="D258" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E258" t="inlineStr">
+      <c r="E258" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr">
+      <c r="F258" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G258" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I258" t="b">
-        <v>1</v>
-      </c>
-      <c r="J258" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K258" t="b">
-        <v>1</v>
-      </c>
-      <c r="L258" t="inlineStr">
+      <c r="G258" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H258" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I258" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J258" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K258" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L258" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="n">
+      <c r="A259" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B259" t="inlineStr">
+      <c r="B259" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr">
+      <c r="C259" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D259" t="n">
+      <c r="D259" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G259" t="b">
-        <v>1</v>
-      </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I259" t="b">
-        <v>1</v>
-      </c>
-      <c r="J259" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K259" t="b">
-        <v>1</v>
-      </c>
-      <c r="L259" t="inlineStr">
+      <c r="E259" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F259" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G259" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H259" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I259" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J259" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K259" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L259" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="n">
+      <c r="A260" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B260" t="inlineStr">
+      <c r="B260" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
+      <c r="C260" s="2" t="inlineStr">
         <is>
           <t>make</t>
         </is>
       </c>
-      <c r="D260" t="n">
+      <c r="D260" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G260" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I260" t="b">
-        <v>1</v>
-      </c>
-      <c r="J260" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K260" t="b">
-        <v>1</v>
-      </c>
-      <c r="L260" t="inlineStr">
+      <c r="E260" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F260" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G260" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J260" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L260" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="n">
+      <c r="A261" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B261" t="inlineStr">
+      <c r="B261" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
+      <c r="C261" s="2" t="inlineStr">
         <is>
           <t>sure</t>
         </is>
       </c>
-      <c r="D261" t="n">
+      <c r="D261" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G261" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I261" t="b">
-        <v>1</v>
-      </c>
-      <c r="J261" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K261" t="b">
-        <v>1</v>
-      </c>
-      <c r="L261" t="inlineStr">
+      <c r="E261" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F261" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G261" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J261" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L261" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="n">
+      <c r="A262" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="B262" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
+      <c r="C262" s="2" t="inlineStr">
         <is>
           <t>you</t>
         </is>
       </c>
-      <c r="D262" t="n">
+      <c r="D262" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G262" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I262" t="b">
-        <v>1</v>
-      </c>
-      <c r="J262" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K262" t="b">
-        <v>1</v>
-      </c>
-      <c r="L262" t="inlineStr">
+      <c r="E262" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F262" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G262" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J262" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L262" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="n">
+      <c r="A263" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B263" t="inlineStr">
+      <c r="B263" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
+      <c r="C263" s="2" t="inlineStr">
         <is>
           <t>have</t>
         </is>
       </c>
-      <c r="D263" t="n">
+      <c r="D263" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G263" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I263" t="b">
-        <v>1</v>
-      </c>
-      <c r="J263" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K263" t="b">
-        <v>1</v>
-      </c>
-      <c r="L263" t="inlineStr">
+      <c r="E263" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F263" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G263" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J263" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L263" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="n">
+      <c r="A264" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B264" t="inlineStr">
+      <c r="B264" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
+      <c r="C264" s="2" t="inlineStr">
         <is>
           <t>obtained</t>
         </is>
       </c>
-      <c r="D264" t="n">
+      <c r="D264" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G264" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I264" t="b">
-        <v>1</v>
-      </c>
-      <c r="J264" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K264" t="b">
-        <v>1</v>
-      </c>
-      <c r="L264" t="inlineStr">
+      <c r="E264" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F264" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G264" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J264" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L264" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="n">
+      <c r="A265" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B265" t="inlineStr">
+      <c r="B265" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
+      <c r="C265" s="2" t="inlineStr">
         <is>
           <t>proper</t>
         </is>
       </c>
-      <c r="D265" t="n">
+      <c r="D265" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G265" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I265" t="b">
-        <v>1</v>
-      </c>
-      <c r="J265" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K265" t="b">
-        <v>1</v>
-      </c>
-      <c r="L265" t="inlineStr">
+      <c r="E265" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F265" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G265" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J265" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L265" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="n">
+      <c r="A266" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="B266" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
+      <c r="C266" s="2" t="inlineStr">
         <is>
           <t>authorization</t>
         </is>
       </c>
-      <c r="D266" t="n">
+      <c r="D266" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G266" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I266" t="b">
-        <v>1</v>
-      </c>
-      <c r="J266" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K266" t="b">
-        <v>1</v>
-      </c>
-      <c r="L266" t="inlineStr">
+      <c r="E266" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F266" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G266" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J266" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L266" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="n">
+      <c r="A267" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="B267" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr">
+      <c r="C267" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D267" t="n">
+      <c r="D267" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G267" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I267" t="b">
-        <v>1</v>
-      </c>
-      <c r="J267" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K267" t="b">
-        <v>1</v>
-      </c>
-      <c r="L267" t="inlineStr">
+      <c r="E267" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F267" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G267" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J267" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L267" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="n">
+      <c r="A268" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B268" t="inlineStr">
+      <c r="B268" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
+      <c r="C268" s="2" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D268" t="n">
+      <c r="D268" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G268" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I268" t="b">
-        <v>1</v>
-      </c>
-      <c r="J268" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K268" t="b">
-        <v>1</v>
-      </c>
-      <c r="L268" t="inlineStr">
+      <c r="E268" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F268" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G268" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J268" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L268" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="n">
+      <c r="A269" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B269" t="inlineStr">
+      <c r="B269" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
+      <c r="C269" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D269" t="n">
+      <c r="D269" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G269" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I269" t="b">
-        <v>1</v>
-      </c>
-      <c r="J269" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K269" t="b">
-        <v>1</v>
-      </c>
-      <c r="L269" t="inlineStr">
+      <c r="E269" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F269" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G269" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J269" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L269" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="n">
+      <c r="A270" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B270" t="inlineStr">
+      <c r="B270" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
+      <c r="C270" s="2" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D270" t="n">
+      <c r="D270" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G270" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I270" t="b">
-        <v>1</v>
-      </c>
-      <c r="J270" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K270" t="b">
-        <v>1</v>
-      </c>
-      <c r="L270" t="inlineStr">
+      <c r="E270" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F270" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G270" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J270" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L270" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="n">
+      <c r="A271" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B271" t="inlineStr">
+      <c r="B271" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr">
+      <c r="C271" s="2" t="inlineStr">
         <is>
           <t>airspace</t>
         </is>
       </c>
-      <c r="D271" t="n">
+      <c r="D271" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="E271" t="inlineStr">
+      <c r="E271" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G271" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I271" t="b">
-        <v>1</v>
-      </c>
-      <c r="J271" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K271" t="b">
-        <v>1</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F271" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G271" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J271" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L271" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
